--- a/ResultadoEleicoesDistritos/AVEIRO_SEVER DO VOUGA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_SEVER DO VOUGA.xlsx
@@ -597,64 +597,64 @@
         <v>3092</v>
       </c>
       <c r="H2" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I2" t="n">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="J2" t="n">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M2" t="n">
         <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>137</v>
+      </c>
+      <c r="T2" t="n">
+        <v>228</v>
+      </c>
+      <c r="U2" t="n">
+        <v>20</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1893</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" t="n">
-        <v>127</v>
-      </c>
-      <c r="T2" t="n">
-        <v>217</v>
-      </c>
-      <c r="U2" t="n">
-        <v>18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1983</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1987</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
